--- a/Modelagem/Fisico.xlsx
+++ b/Modelagem/Fisico.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34436810852\Documents\Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34436810852\Documents\Senai_SpMedGroup_Sprint1_BD_Tarde_DiegoBarreto\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E8A665-892E-4CD4-82F9-D75B721E9510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354C1829-0D79-4376-AE16-6B58CF184E21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{1CD9DF9F-2D9E-4B1B-8510-663610976501}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Medico" sheetId="2" r:id="rId2"/>
-    <sheet name="Paciente" sheetId="3" r:id="rId3"/>
-    <sheet name="Consulta" sheetId="4" r:id="rId4"/>
-    <sheet name="Usuario" sheetId="5" r:id="rId5"/>
+    <sheet name="Planilha2" sheetId="6" r:id="rId2"/>
+    <sheet name="Medico" sheetId="2" r:id="rId3"/>
+    <sheet name="Paciente" sheetId="3" r:id="rId4"/>
+    <sheet name="Consulta" sheetId="4" r:id="rId5"/>
+    <sheet name="Usuario" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="108">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -344,13 +345,22 @@
   </si>
   <si>
     <t>EmailMedico</t>
+  </si>
+  <si>
+    <t>Situacao</t>
+  </si>
+  <si>
+    <t>IdSituacao</t>
+  </si>
+  <si>
+    <t>QualSit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,8 +427,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +479,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -475,30 +499,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -515,12 +524,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -533,6 +536,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -848,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87DB14F-CC8B-44BA-87F6-37E286A3A527}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,21 +898,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="24"/>
+      <c r="D1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="25"/>
+      <c r="G1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -921,7 +949,7 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="1">
@@ -930,7 +958,7 @@
       <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -944,7 +972,7 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -958,7 +986,7 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -966,7 +994,7 @@
       <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -974,7 +1002,7 @@
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -982,7 +1010,7 @@
       <c r="D8" s="1">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -990,7 +1018,7 @@
       <c r="D9" s="1">
         <v>7</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -998,7 +1026,7 @@
       <c r="D10" s="1">
         <v>8</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1006,7 +1034,7 @@
       <c r="D11" s="1">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1014,7 +1042,7 @@
       <c r="D12" s="1">
         <v>10</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1022,7 +1050,7 @@
       <c r="D13" s="1">
         <v>11</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1030,7 +1058,7 @@
       <c r="D14" s="1">
         <v>12</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1038,7 +1066,7 @@
       <c r="D15" s="1">
         <v>13</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1046,46 +1074,98 @@
       <c r="D16" s="1">
         <v>14</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D17" s="1">
         <v>15</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
         <v>16</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>17</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="31"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2197369-AE87-48BA-94CB-A4B145875B5B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCF0E6D-E3F9-4091-9099-5DB53FCAD465}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -1106,44 +1186,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1151,28 +1231,28 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1180,28 +1260,28 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>17</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1209,28 +1289,28 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="23">
         <v>16</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1247,7 +1327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE85FAF-32EF-4ABC-9B9F-BEB54D6D8B9D}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -1268,44 +1348,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="18" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1313,25 +1393,25 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="7">
         <v>30602</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="13">
         <v>94839859000</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="I3">
@@ -1342,25 +1422,25 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="7">
         <v>37095</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="13">
         <v>73556944057</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>58</v>
       </c>
       <c r="I4">
@@ -1371,25 +1451,25 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="7">
         <v>28773</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="13">
         <v>16839338002</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="8" t="s">
         <v>63</v>
       </c>
       <c r="I5">
@@ -1400,25 +1480,25 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="7">
         <v>31333</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="13">
         <v>14332654765</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="8" t="s">
         <v>68</v>
       </c>
       <c r="I6">
@@ -1429,25 +1509,25 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="7">
         <v>27633</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="13">
         <v>91305348010</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="8" t="s">
         <v>73</v>
       </c>
       <c r="I7">
@@ -1458,25 +1538,25 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="7">
         <v>26379</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="13">
         <v>79799299004</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="8" t="s">
         <v>77</v>
       </c>
       <c r="I8">
@@ -1487,25 +1567,25 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="7">
         <v>43164</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="13">
         <v>13771913039</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="8" t="s">
         <v>82</v>
       </c>
       <c r="I9">
@@ -1529,7 +1609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAD53F8-2549-46AC-9ECF-09992EA79525}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1547,123 +1627,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="15">
         <v>43850.625</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="14">
         <v>2</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="15">
         <v>43836.416666666664</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="15">
         <v>43868.458333333336</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="15">
         <v>43137.416666666664</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="15">
         <v>43503.458854166667</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="15">
         <v>43898.625</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="14">
         <v>2</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="15">
         <v>43899.458854166667</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="14" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1675,7 +1755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132121CD-CBA6-4C48-8077-9A31F1A7D444}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -1690,15 +1770,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1721,10 +1801,10 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D3">
@@ -1738,10 +1818,10 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D4">
@@ -1755,10 +1835,10 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="20" t="s">
         <v>64</v>
       </c>
       <c r="D5">
@@ -1772,10 +1852,10 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D6">
@@ -1789,10 +1869,10 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D7">
@@ -1806,10 +1886,10 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D8">
@@ -1823,10 +1903,10 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D9">
@@ -1840,10 +1920,10 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D10">
@@ -1857,10 +1937,10 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D11">
@@ -1874,10 +1954,10 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D12">
@@ -1891,10 +1971,10 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="19" t="s">
         <v>102</v>
       </c>
       <c r="D13">
